--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\seleniumAmtTesting\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404C9263-808B-441F-A03F-9447241D26DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C7177-C27D-4E78-8247-002CDCF5A0ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="195">
   <si>
     <t>TC_ID</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>autoManage</t>
+  </si>
+  <si>
+    <t>test_test_252</t>
+  </si>
+  <si>
+    <t>test_test_254</t>
   </si>
 </sst>
 </file>
@@ -44893,10 +44899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81362EF-F639-4F16-9B39-A84C1506E605}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44978,10 +44984,10 @@
         <v>168</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>167</v>
@@ -45020,6 +45026,56 @@
         <v>177</v>
       </c>
       <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3">
+        <v>1229</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\seleniumAmtTesting\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C7177-C27D-4E78-8247-002CDCF5A0ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD001B72-CFCC-45F7-A351-57F46C6D2693}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="194">
   <si>
     <t>TC_ID</t>
   </si>
@@ -611,10 +611,7 @@
     <t>autoManage</t>
   </si>
   <si>
-    <t>test_test_252</t>
-  </si>
-  <si>
-    <t>test_test_254</t>
+    <t>test_test_257</t>
   </si>
 </sst>
 </file>
@@ -44902,7 +44899,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44984,10 +44981,10 @@
         <v>168</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>167</v>
@@ -45030,54 +45027,19 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3">
-        <v>1229</v>
-      </c>
-      <c r="I3" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="O3" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="P3" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
+      <c r="A3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -5,32 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\seleniumAmtTesting\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\FinalTestAMT\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD001B72-CFCC-45F7-A351-57F46C6D2693}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C28290-526C-4839-A50C-36C707A8147E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="19440" windowHeight="15150" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="TC001_TC050" sheetId="3" r:id="rId3"/>
     <sheet name="Property" sheetId="4" r:id="rId4"/>
+    <sheet name="Lease" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
   <si>
     <t>TC_ID</t>
   </si>
@@ -613,6 +614,54 @@
   <si>
     <t>test_test_257</t>
   </si>
+  <si>
+    <t>TestId</t>
+  </si>
+  <si>
+    <t>dbaName</t>
+  </si>
+  <si>
+    <t>leaseCode</t>
+  </si>
+  <si>
+    <t>leaseStatus</t>
+  </si>
+  <si>
+    <t>leaseType</t>
+  </si>
+  <si>
+    <t>billingType</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>1.Sumaiya property</t>
+  </si>
+  <si>
+    <t>Test_L</t>
+  </si>
+  <si>
+    <t>Base Year</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>12/31/2026</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
 </sst>
 </file>
 
@@ -621,7 +670,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -657,6 +706,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -734,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -872,12 +935,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,12 +1183,47 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -30780,107 +30889,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D13:D1000 D1">
-    <cfRule type="cellIs" dxfId="145" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D1000 D1">
-    <cfRule type="cellIs" dxfId="144" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D1000 D1">
-    <cfRule type="cellIs" dxfId="143" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D11">
-    <cfRule type="cellIs" dxfId="142" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="4" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D11">
-    <cfRule type="cellIs" dxfId="141" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="5" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D11">
-    <cfRule type="cellIs" dxfId="140" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="139" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="138" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="137" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="cellIs" dxfId="136" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="cellIs" dxfId="135" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6">
-    <cfRule type="cellIs" dxfId="134" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="133" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="132" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="131" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="130" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="129" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="128" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="127" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="126" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="125" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44079,517 +44188,517 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H102:H103 H139:H140 H86 H92 H124:H128 H168:H169 H195:H1001 H3:H8">
-    <cfRule type="cellIs" dxfId="124" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="123" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57">
-    <cfRule type="cellIs" dxfId="122" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="121" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="120" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105:H108">
-    <cfRule type="cellIs" dxfId="119" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78 H80 H82 H84">
-    <cfRule type="cellIs" dxfId="118" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H123">
-    <cfRule type="cellIs" dxfId="117" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112">
-    <cfRule type="cellIs" dxfId="116" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H85">
-    <cfRule type="cellIs" dxfId="115" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H130">
-    <cfRule type="cellIs" dxfId="114" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="cellIs" dxfId="113" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="112" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="43" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="111" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="cellIs" dxfId="110" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="109" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="cellIs" dxfId="108" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="47" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H101">
-    <cfRule type="cellIs" dxfId="107" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="48" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116 H118 H120 H122">
-    <cfRule type="cellIs" dxfId="106" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="49" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="105" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="104" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="51" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110:H111">
-    <cfRule type="cellIs" dxfId="103" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="102" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="101" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="100" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:H130">
-    <cfRule type="cellIs" dxfId="99" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132">
-    <cfRule type="cellIs" dxfId="98" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133:H138">
-    <cfRule type="cellIs" dxfId="97" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="96" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H131">
-    <cfRule type="cellIs" dxfId="95" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H91">
-    <cfRule type="cellIs" dxfId="94" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153 H155 H157 H159">
-    <cfRule type="cellIs" dxfId="93" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H141">
-    <cfRule type="cellIs" dxfId="92" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="91" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="64" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:H145">
-    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:H148">
-    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="88" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H151">
-    <cfRule type="cellIs" dxfId="87" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152:H160">
-    <cfRule type="cellIs" dxfId="86" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H149">
-    <cfRule type="cellIs" dxfId="85" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147">
-    <cfRule type="cellIs" dxfId="84" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="83" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="cellIs" dxfId="82" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H162">
-    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164">
-    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H166">
-    <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H167">
-    <cfRule type="cellIs" dxfId="75" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182 H184 H186 H188">
-    <cfRule type="cellIs" dxfId="74" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H170">
-    <cfRule type="cellIs" dxfId="73" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H175">
-    <cfRule type="cellIs" dxfId="72" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H174">
-    <cfRule type="cellIs" dxfId="71" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:H177">
-    <cfRule type="cellIs" dxfId="70" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179">
-    <cfRule type="cellIs" dxfId="69" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H180">
-    <cfRule type="cellIs" dxfId="68" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H189">
-    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="66" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190">
-    <cfRule type="cellIs" dxfId="64" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194">
-    <cfRule type="cellIs" dxfId="63" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193">
-    <cfRule type="cellIs" dxfId="62" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H193">
-    <cfRule type="cellIs" dxfId="61" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="60" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="95" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H192">
-    <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="96" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H19:H20">
-    <cfRule type="cellIs" dxfId="58" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H19">
-    <cfRule type="cellIs" dxfId="57" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="56" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="99" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="55" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="100" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25">
-    <cfRule type="cellIs" dxfId="54" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="101" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25">
-    <cfRule type="cellIs" dxfId="53" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="103" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="51" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="104" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 H29:H30">
-    <cfRule type="cellIs" dxfId="50" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="105" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 H29:H30">
-    <cfRule type="cellIs" dxfId="49" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="106" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="48" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="107" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="47" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="108" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H30">
-    <cfRule type="cellIs" dxfId="46" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="109" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="45" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="110" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="44" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="111" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="43" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="112" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="42" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="113" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="41" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="114" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="40" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="115" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="39" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="116" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="38" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="117" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="37" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="118" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="36" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="119" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="35" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="120" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="34" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="121" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="33" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="122" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="32" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="123" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="31" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="124" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="30" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13 H15">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44603,7 +44712,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="29" operator="equal" id="{BC2517B2-EF00-4DD7-BFDB-45CBEA86F95A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44616,7 +44725,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="27" operator="equal" id="{189AF047-2FB8-4A30-9CF7-715E6643A0DD}">
-            <xm:f>'C:\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44626,7 +44735,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="28" operator="equal" id="{6D03C738-803D-4D93-96DB-E16020106ABC}">
-            <xm:f>'C:\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44639,7 +44748,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="26" operator="equal" id="{56C5208A-0418-4DF5-B7BC-BF1068251FBD}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44652,7 +44761,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="25" operator="equal" id="{F9A80D82-E708-49D9-8A9A-03A9E48C75D6}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44665,7 +44774,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{0D5C99F4-1393-4655-A002-2C74CAC6E98D}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44675,7 +44784,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="23" operator="equal" id="{D3BAE2B6-788D-4F7E-9F77-64B679D84250}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44688,7 +44797,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{19F09A0D-E228-4618-996A-D73A57873828}">
-            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44701,7 +44810,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A5EB4A4C-92D1-401A-A8A6-95F55ADA941C}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44714,7 +44823,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EB04725F-DD9A-4E48-B06D-A19DB4615166}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44727,7 +44836,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="15" operator="equal" id="{2EEC973A-04A6-4813-8C3F-A9DF77292B01}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44737,7 +44846,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="16" operator="equal" id="{4133868E-335E-4598-A3E1-F0F9ECCCAB39}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44750,7 +44859,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6FC88015-4D02-4917-844B-7BD94C0F201B}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44763,7 +44872,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{526BD5E8-3A68-4932-9848-428C4F00E27C}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44773,7 +44882,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{7900C41F-32F5-414D-B3F9-11BD7A0F0312}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44786,7 +44895,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{01594AD9-16DD-4CBF-801D-EEB0EF3BAC6A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44799,7 +44908,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{DCD056FF-A462-4A08-BE97-F988112DD0C6}">
-            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44812,7 +44921,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{38A3F3E9-5AF4-4B13-96A1-65DE688F4CFB}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44825,7 +44934,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{8C16CCA5-35EE-4D6B-B4ED-61524C363BE1}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44835,7 +44944,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{90BAD57D-85B5-4545-BD61-3031E0C1837F}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44848,7 +44957,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{1BDB983F-3025-482D-BCAF-4327ACC215C8}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44861,7 +44970,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{60F9AD86-5185-4E91-BD53-04AF4E3F10F8}">
-            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44898,7 +45007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81362EF-F639-4F16-9B39-A84C1506E605}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -45045,4 +45154,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB6E0A-2F06-410F-BCB9-2F2C2849D4D7}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="88">
+        <v>1234</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\FinalTestAMT\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\seleniumAmtTesting\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C28290-526C-4839-A50C-36C707A8147E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226D7AD-F989-43A7-A178-0805AA54A658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="19440" windowHeight="15150" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="209">
   <si>
     <t>TC_ID</t>
   </si>
@@ -612,9 +612,6 @@
     <t>autoManage</t>
   </si>
   <si>
-    <t>test_test_257</t>
-  </si>
-  <si>
     <t>TestId</t>
   </si>
   <si>
@@ -639,12 +636,6 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>1.Sumaiya property</t>
-  </si>
-  <si>
     <t>Test_L</t>
   </si>
   <si>
@@ -662,6 +653,12 @@
   <si>
     <t>01</t>
   </si>
+  <si>
+    <t>contractTerm</t>
+  </si>
+  <si>
+    <t>test_test_368</t>
+  </si>
 </sst>
 </file>
 
@@ -670,11 +667,18 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -949,26 +953,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +993,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1136,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,36 +1170,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,7 +1211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -44712,7 +44722,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="29" operator="equal" id="{BC2517B2-EF00-4DD7-BFDB-45CBEA86F95A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44725,7 +44735,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="27" operator="equal" id="{189AF047-2FB8-4A30-9CF7-715E6643A0DD}">
-            <xm:f>'\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44735,7 +44745,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="28" operator="equal" id="{6D03C738-803D-4D93-96DB-E16020106ABC}">
-            <xm:f>'\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44748,7 +44758,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="26" operator="equal" id="{56C5208A-0418-4DF5-B7BC-BF1068251FBD}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44761,7 +44771,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="25" operator="equal" id="{F9A80D82-E708-49D9-8A9A-03A9E48C75D6}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44774,7 +44784,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{0D5C99F4-1393-4655-A002-2C74CAC6E98D}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44784,7 +44794,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="23" operator="equal" id="{D3BAE2B6-788D-4F7E-9F77-64B679D84250}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44797,7 +44807,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{19F09A0D-E228-4618-996A-D73A57873828}">
-            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44810,7 +44820,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A5EB4A4C-92D1-401A-A8A6-95F55ADA941C}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44823,7 +44833,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EB04725F-DD9A-4E48-B06D-A19DB4615166}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44836,7 +44846,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="15" operator="equal" id="{2EEC973A-04A6-4813-8C3F-A9DF77292B01}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44846,7 +44856,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="16" operator="equal" id="{4133868E-335E-4598-A3E1-F0F9ECCCAB39}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44859,7 +44869,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6FC88015-4D02-4917-844B-7BD94C0F201B}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44872,7 +44882,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{526BD5E8-3A68-4932-9848-428C4F00E27C}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44882,7 +44892,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{7900C41F-32F5-414D-B3F9-11BD7A0F0312}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44895,7 +44905,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{01594AD9-16DD-4CBF-801D-EEB0EF3BAC6A}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44908,7 +44918,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{DCD056FF-A462-4A08-BE97-F988112DD0C6}">
-            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44921,7 +44931,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{38A3F3E9-5AF4-4B13-96A1-65DE688F4CFB}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44934,7 +44944,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{8C16CCA5-35EE-4D6B-B4ED-61524C363BE1}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44944,7 +44954,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{90BAD57D-85B5-4545-BD61-3031E0C1837F}">
-            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44957,7 +44967,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{1BDB983F-3025-482D-BCAF-4327ACC215C8}">
-            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44970,7 +44980,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{60F9AD86-5185-4E91-BD53-04AF4E3F10F8}">
-            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -45007,8 +45017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81362EF-F639-4F16-9B39-A84C1506E605}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45090,10 +45100,10 @@
         <v>168</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>167</v>
@@ -45158,10 +45168,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB6E0A-2F06-410F-BCB9-2F2C2849D4D7}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45175,11 +45185,12 @@
     <col min="7" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>166</v>
@@ -45188,28 +45199,28 @@
         <v>178</v>
       </c>
       <c r="D1" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="H1" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="I1" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="J1" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" s="81" t="s">
-        <v>202</v>
+      <c r="K1" s="90" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -45218,10 +45229,10 @@
       </c>
       <c r="B2" s="88"/>
       <c r="C2" s="89" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E2" s="88">
         <v>1234</v>
@@ -45230,25 +45241,29 @@
         <v>173</v>
       </c>
       <c r="G2" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="K2" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="87" t="s">
-        <v>209</v>
-      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="89"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\seleniumAmtTesting\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTTestingFramework\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226D7AD-F989-43A7-A178-0805AA54A658}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F6D57-D89A-462C-A13B-16F3A8032217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
   <si>
     <t>TC_ID</t>
   </si>
@@ -636,16 +636,10 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t>Test_L</t>
-  </si>
-  <si>
     <t>Base Year</t>
   </si>
   <si>
     <t>Income</t>
-  </si>
-  <si>
-    <t>11/01/2017</t>
   </si>
   <si>
     <t>12/31/2026</t>
@@ -657,7 +651,16 @@
     <t>contractTerm</t>
   </si>
   <si>
-    <t>test_test_368</t>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>P_Test_Property</t>
+  </si>
+  <si>
+    <t>Test_00001_lease_01</t>
+  </si>
+  <si>
+    <t>00001.01</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,6 +1220,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -44722,7 +44728,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="29" operator="equal" id="{BC2517B2-EF00-4DD7-BFDB-45CBEA86F95A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44735,7 +44741,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="27" operator="equal" id="{189AF047-2FB8-4A30-9CF7-715E6643A0DD}">
-            <xm:f>'C:\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44745,7 +44751,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="28" operator="equal" id="{6D03C738-803D-4D93-96DB-E16020106ABC}">
-            <xm:f>'C:\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\10-12-nous\AMTDirect_NousAutomation\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44758,7 +44764,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="26" operator="equal" id="{56C5208A-0418-4DF5-B7BC-BF1068251FBD}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44771,7 +44777,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="25" operator="equal" id="{F9A80D82-E708-49D9-8A9A-03A9E48C75D6}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44784,7 +44790,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="22" operator="equal" id="{0D5C99F4-1393-4655-A002-2C74CAC6E98D}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44794,7 +44800,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="23" operator="equal" id="{D3BAE2B6-788D-4F7E-9F77-64B679D84250}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44807,7 +44813,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="21" operator="equal" id="{19F09A0D-E228-4618-996A-D73A57873828}">
-            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44820,7 +44826,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A5EB4A4C-92D1-401A-A8A6-95F55ADA941C}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44833,7 +44839,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EB04725F-DD9A-4E48-B06D-A19DB4615166}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44846,7 +44852,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="15" operator="equal" id="{2EEC973A-04A6-4813-8C3F-A9DF77292B01}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44856,7 +44862,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="16" operator="equal" id="{4133868E-335E-4598-A3E1-F0F9ECCCAB39}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44869,7 +44875,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6FC88015-4D02-4917-844B-7BD94C0F201B}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44882,7 +44888,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="11" operator="equal" id="{526BD5E8-3A68-4932-9848-428C4F00E27C}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44892,7 +44898,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{7900C41F-32F5-414D-B3F9-11BD7A0F0312}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44905,7 +44911,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{01594AD9-16DD-4CBF-801D-EEB0EF3BAC6A}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44918,7 +44924,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{DCD056FF-A462-4A08-BE97-F988112DD0C6}">
-            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44931,7 +44937,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{38A3F3E9-5AF4-4B13-96A1-65DE688F4CFB}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44944,7 +44950,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{8C16CCA5-35EE-4D6B-B4ED-61524C363BE1}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44954,7 +44960,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{90BAD57D-85B5-4545-BD61-3031E0C1837F}">
-            <xm:f>'C:\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\AMT Project Suite\22-10-2018\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44967,7 +44973,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{1BDB983F-3025-482D-BCAF-4327ACC215C8}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -44980,7 +44986,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{60F9AD86-5185-4E91-BD53-04AF4E3F10F8}">
-            <xm:f>'C:\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\temp\seleniumAmtTesting\Framework\Modules\[FASB.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -45017,8 +45023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81362EF-F639-4F16-9B39-A84C1506E605}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45100,10 +45106,10 @@
         <v>168</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="D2" s="80">
+        <v>24343465</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>167</v>
@@ -45170,17 +45176,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB6E0A-2F06-410F-BCB9-2F2C2849D4D7}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="73" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" style="73" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
@@ -45201,7 +45207,7 @@
       <c r="D1" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="92" t="s">
         <v>195</v>
       </c>
       <c r="F1" s="83" t="s">
@@ -45220,7 +45226,7 @@
         <v>200</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -45228,36 +45234,44 @@
         <v>168</v>
       </c>
       <c r="B2" s="88"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="88">
-        <v>1234</v>
+      <c r="E2" s="91" t="s">
+        <v>209</v>
       </c>
       <c r="F2" s="88" t="s">
         <v>173</v>
       </c>
       <c r="G2" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="I2" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="K2" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="91" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="89"/>
+      <c r="A3" s="79"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="91"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1">

--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTTestingFramework\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F6D57-D89A-462C-A13B-16F3A8032217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEAA02B-4163-49FD-85ED-FF10B52167E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,21 @@
     <sheet name="TC001_TC050" sheetId="3" r:id="rId3"/>
     <sheet name="Property" sheetId="4" r:id="rId4"/>
     <sheet name="Lease" sheetId="5" r:id="rId5"/>
+    <sheet name="Space" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="215">
   <si>
     <t>TC_ID</t>
   </si>
@@ -661,6 +662,21 @@
   </si>
   <si>
     <t>00001.01</t>
+  </si>
+  <si>
+    <t>LeaseName</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Test_00001_lease_04</t>
+  </si>
+  <si>
+    <t>Test_004</t>
   </si>
 </sst>
 </file>
@@ -45176,8 +45192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB6E0A-2F06-410F-BCB9-2F2C2849D4D7}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45280,4 +45296,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD612C6E-0C35-4A08-BC9E-BAB6CEE21F73}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEAA02B-4163-49FD-85ED-FF10B52167E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C91889-5B4B-4724-8A14-5FFDDD98DC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
@@ -658,12 +658,6 @@
     <t>P_Test_Property</t>
   </si>
   <si>
-    <t>Test_00001_lease_01</t>
-  </si>
-  <si>
-    <t>00001.01</t>
-  </si>
-  <si>
     <t>LeaseName</t>
   </si>
   <si>
@@ -676,7 +670,13 @@
     <t>Test_00001_lease_04</t>
   </si>
   <si>
-    <t>Test_004</t>
+    <t>Test_04</t>
+  </si>
+  <si>
+    <t>Test_00002_lease_09</t>
+  </si>
+  <si>
+    <t>00002.09</t>
   </si>
 </sst>
 </file>
@@ -45192,8 +45192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB6E0A-2F06-410F-BCB9-2F2C2849D4D7}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45254,10 +45254,10 @@
         <v>207</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F2" s="88" t="s">
         <v>173</v>
@@ -45302,8 +45302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD612C6E-0C35-4A08-BC9E-BAB6CEE21F73}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45319,13 +45319,13 @@
         <v>193</v>
       </c>
       <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -45333,10 +45333,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/src/main/resources/dataCreate/PropertyCreate.xlsx
+++ b/src/main/resources/dataCreate/PropertyCreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C91889-5B4B-4724-8A14-5FFDDD98DC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985949AE-8EDF-4F08-89A8-6B4A1CDFE1C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="218">
   <si>
     <t>TC_ID</t>
   </si>
@@ -667,16 +667,25 @@
     <t>Floor</t>
   </si>
   <si>
-    <t>Test_00001_lease_04</t>
+    <t>Test_00002_lease_16</t>
   </si>
   <si>
-    <t>Test_04</t>
+    <t>Test_019</t>
   </si>
   <si>
-    <t>Test_00002_lease_09</t>
+    <t>Test_020</t>
   </si>
   <si>
-    <t>00002.09</t>
+    <t>Test_00002_lease_19</t>
+  </si>
+  <si>
+    <t>Test_00002_lease_20</t>
+  </si>
+  <si>
+    <t>00002.19</t>
+  </si>
+  <si>
+    <t>00002.20</t>
   </si>
 </sst>
 </file>
@@ -45193,7 +45202,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45254,10 +45263,10 @@
         <v>207</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F2" s="88" t="s">
         <v>173</v>
@@ -45279,15 +45288,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="91"/>
+      <c r="A3" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1">
@@ -45300,10 +45331,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD612C6E-0C35-4A08-BC9E-BAB6CEE21F73}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45342,6 +45373,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
